--- a/Acessos.xlsx
+++ b/Acessos.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unosilva\Documents\Projeto Meli Awards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unosilva\Documents\Projeto Meli Awards - v02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6EA1AD-2038-490B-8E48-0E460D2EB21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B793812-987E-40BC-9E35-D176190305EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F6876E12-98B3-4F33-AF0F-22A5C1C00DD2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F6876E12-98B3-4F33-AF0F-22A5C1C00DD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Acessos" sheetId="1" r:id="rId1"/>
     <sheet name="Categorias" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acessos!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acessos!$A$1:$D$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Categorias!$A$1:$B$334</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="295">
   <si>
     <t>E-mail</t>
   </si>
@@ -85,72 +85,18 @@
     <t>CTX MLB</t>
   </si>
   <si>
-    <t>ATE</t>
-  </si>
-  <si>
-    <t>TP</t>
-  </si>
-  <si>
     <t>AeC</t>
   </si>
   <si>
     <t>COMMERCIAL CARRIERS</t>
   </si>
   <si>
-    <t>(CORREIOS) EMPRESA BRASILEIRA DE CORREIOS E TELÉGRAFOS</t>
-  </si>
-  <si>
-    <t>(LOGGI) L4B LOGISTICA LTDA</t>
-  </si>
-  <si>
-    <t>COOPERATIVA REDE SUL DE LOGISTICA LTDA</t>
-  </si>
-  <si>
-    <t>SEQUOIA LOGISTICA E TRANSPORTES S.A</t>
-  </si>
-  <si>
-    <t>JADLOG LOGISTICA S.A</t>
-  </si>
-  <si>
-    <t>FEDEX BRASIL LOGÍSTICA E TRANSPORTE LTDA</t>
-  </si>
-  <si>
-    <t>CARVALIMA TRANSPORTES LTDA</t>
-  </si>
-  <si>
-    <t>CARRIERS LOGISTICA E TRANSPORTE LTDA</t>
-  </si>
-  <si>
-    <t>MANUTENÇAO</t>
-  </si>
-  <si>
     <t>LEADEC SERVICOS INDUSTRIAIS DO BRASIL</t>
   </si>
   <si>
     <t>(GPS) IN HAUS INDUSTRIAL E SERVIÇOS DE LOGÍSTICA LTDA.</t>
   </si>
   <si>
-    <t>Tecnogera Locacao e transformacao</t>
-  </si>
-  <si>
-    <t>(THORIO) TH 232 CONSULTORIA E LOCAÇÃO DE GERADORES</t>
-  </si>
-  <si>
-    <t>ESSENCIAL SOLUÇÕES TÉCNICAS LTDA</t>
-  </si>
-  <si>
-    <t>FACILITIES</t>
-  </si>
-  <si>
-    <t>BR Spply</t>
-  </si>
-  <si>
-    <t>LI DE ARAUJO SERVICOS PATRIMONIAIS</t>
-  </si>
-  <si>
-    <t>ARTPLAN COMERCIAL LTDA</t>
-  </si>
-  <si>
     <t>G4S</t>
   </si>
   <si>
@@ -160,9 +106,6 @@
     <t>OSESP</t>
   </si>
   <si>
-    <t>GRAN COFFEE COMERCIO LOCACAO</t>
-  </si>
-  <si>
     <t>FDVT FORÇA DE VENDAS</t>
   </si>
   <si>
@@ -193,84 +136,12 @@
     <t>GRUPO PICINATO</t>
   </si>
   <si>
-    <t>NONNA TERCEIRIZACAO DE SERVICOS LTD</t>
-  </si>
-  <si>
-    <t>MK9 TRADE</t>
-  </si>
-  <si>
     <t>FIRST MILE</t>
   </si>
   <si>
-    <t>(ALC) ANDRE LUIZ NEVES DA COSTA</t>
-  </si>
-  <si>
-    <t>AC2 LOGISTICA EIRELI</t>
-  </si>
-  <si>
-    <t>BASEPEX ENCOMENDAS URGENTES EIRELI</t>
-  </si>
-  <si>
-    <t>BGN NIKIMBA TRANSPORTE LTDA</t>
-  </si>
-  <si>
-    <t>BLD LOGISTICA LTDA</t>
-  </si>
-  <si>
-    <t>COMPANHIA CAXIENSE DE TRANSPORTE E LOGISTICA LTDA</t>
-  </si>
-  <si>
-    <t>(DDL) M D SOUZA INTERMEDIACOES DE NEGOCIOS LTDA</t>
-  </si>
-  <si>
-    <t>(DHL) UNIDOCK’S ASSESSORIA E LOGÍSTICA DE MATERIAIS LTDA</t>
-  </si>
-  <si>
-    <t>FLYPACK TRANSPORTE E LOGISTICA LTDA</t>
-  </si>
-  <si>
-    <t>HAWK TRANSPORTES LTDA</t>
-  </si>
-  <si>
-    <t>TRANSPORTES IMEDIATO LTDA</t>
-  </si>
-  <si>
-    <t>JM TRANSPORTES E DISTRIBUICAO LTDA</t>
-  </si>
-  <si>
     <t>LOG STOPASSOLLI TRANSPORTES LTDA</t>
   </si>
   <si>
-    <t>TRANSMARONI TRANSPORTES BRASIL RODOVIÁRIOS LTDA</t>
-  </si>
-  <si>
-    <t>MURICI TRANSPORTES E LOGISTICA EIRELI</t>
-  </si>
-  <si>
-    <t>ONTIME EXPRESS LOGÍSTICA E TRANSPORTES S.A</t>
-  </si>
-  <si>
-    <t>PANTERA LOG TRANSPORTES E LOGISTICA LTDA</t>
-  </si>
-  <si>
-    <t>PARCEIRO SPOT SOLUÇÕES LTDA</t>
-  </si>
-  <si>
-    <t>PRA LOG TRANSPORTES E SERVIÇOS LTDA</t>
-  </si>
-  <si>
-    <t>PROTEGE CARGO</t>
-  </si>
-  <si>
-    <t>(RODACOOP) COOPERATIVA DOS TRANSPORTADORES AUTONOMOS DE CARGAS, PASSAGEIROS E SERVICOS DE LOGISTICA LTDA</t>
-  </si>
-  <si>
-    <t>EDUARDO SMOLKA DE FARIA VS EXPRESS LIMITADA</t>
-  </si>
-  <si>
-    <t>TORRES TRANSPORTES LTDA</t>
-  </si>
-  <si>
     <t>FLYERS</t>
   </si>
   <si>
@@ -304,15 +175,9 @@
     <t>Fretadão</t>
   </si>
   <si>
-    <t>Stylle Turismo</t>
-  </si>
-  <si>
     <t>D'Pradus</t>
   </si>
   <si>
-    <t>Kari fretados</t>
-  </si>
-  <si>
     <t>Azzatur | Azevedo &amp; Castro</t>
   </si>
   <si>
@@ -358,9 +223,6 @@
     <t>Cherantola</t>
   </si>
   <si>
-    <t>Essencial</t>
-  </si>
-  <si>
     <t>LAST MILE</t>
   </si>
   <si>
@@ -373,321 +235,27 @@
     <t>Hawk Transportes</t>
   </si>
   <si>
-    <t>BRJ</t>
-  </si>
-  <si>
-    <t>Basepex Encomendas</t>
-  </si>
-  <si>
-    <t>BLD Logística</t>
-  </si>
-  <si>
-    <t>CoopMetro</t>
-  </si>
-  <si>
     <t>DHL</t>
   </si>
   <si>
-    <t>PRA Log</t>
-  </si>
-  <si>
-    <t>Parceiro Spot</t>
-  </si>
-  <si>
-    <t>ALC</t>
-  </si>
-  <si>
     <t>MSR</t>
   </si>
   <si>
-    <t>AltoVale</t>
-  </si>
-  <si>
-    <t>Panterta Log</t>
-  </si>
-  <si>
-    <t>TransMana</t>
-  </si>
-  <si>
     <t>Flight Cargo</t>
   </si>
   <si>
-    <t>ADO Transportadora</t>
-  </si>
-  <si>
-    <t>Ontime</t>
-  </si>
-  <si>
-    <t>Atitude</t>
-  </si>
-  <si>
-    <t>BGN Nikimba</t>
-  </si>
-  <si>
-    <t>AC2 Logística</t>
-  </si>
-  <si>
-    <t>WLS Cargo</t>
-  </si>
-  <si>
-    <t>Torres Transportes</t>
-  </si>
-  <si>
-    <t>Eco Express</t>
-  </si>
-  <si>
-    <t>DeCargo</t>
-  </si>
-  <si>
-    <t>50 Mais</t>
-  </si>
-  <si>
-    <t>Coomap</t>
-  </si>
-  <si>
-    <t>DeLuna</t>
-  </si>
-  <si>
-    <t>Espíndola</t>
-  </si>
-  <si>
     <t>Smolka</t>
   </si>
   <si>
-    <t>Log Serviços</t>
-  </si>
-  <si>
-    <t>Bravox</t>
-  </si>
-  <si>
-    <t>Nikkey</t>
-  </si>
-  <si>
     <t>JM Transportes</t>
   </si>
   <si>
-    <t>Rede Frete</t>
-  </si>
-  <si>
-    <t>Transitario Log</t>
-  </si>
-  <si>
-    <t>DDL</t>
-  </si>
-  <si>
-    <t>Log Soluções</t>
-  </si>
-  <si>
-    <t>Entrevias Express</t>
-  </si>
-  <si>
-    <t>E-Log</t>
-  </si>
-  <si>
-    <t>Renner</t>
-  </si>
-  <si>
-    <t>Faster Log</t>
-  </si>
-  <si>
-    <t>JL Castro</t>
-  </si>
-  <si>
-    <t>DL Logística</t>
-  </si>
-  <si>
-    <t>M. J. Transportes</t>
-  </si>
-  <si>
-    <t>Logstopassolli</t>
-  </si>
-  <si>
-    <t>Rodalog</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>3 A BRASIL</t>
-  </si>
-  <si>
-    <t>Motatur Turismo</t>
-  </si>
-  <si>
-    <t>PrataLog</t>
-  </si>
-  <si>
-    <t>DFA</t>
-  </si>
-  <si>
-    <t>Flypack</t>
-  </si>
-  <si>
-    <t>Move</t>
-  </si>
-  <si>
-    <t>Help Me Soluções</t>
-  </si>
-  <si>
-    <t>Juliana Aparecida</t>
-  </si>
-  <si>
-    <t>Única Transportes</t>
-  </si>
-  <si>
-    <t>CargoBR</t>
-  </si>
-  <si>
-    <t>T2C</t>
-  </si>
-  <si>
-    <t>Lets Express</t>
-  </si>
-  <si>
-    <t>Ramponi</t>
-  </si>
-  <si>
-    <t>RSC</t>
-  </si>
-  <si>
-    <t>Transdelevati</t>
-  </si>
-  <si>
-    <t>Provisyon</t>
-  </si>
-  <si>
-    <t>Caxiense</t>
-  </si>
-  <si>
-    <t>Bem Log</t>
-  </si>
-  <si>
-    <t>Nave Transporte</t>
-  </si>
-  <si>
-    <t>Avante Transportes</t>
-  </si>
-  <si>
-    <t>Fast Norte Courier</t>
-  </si>
-  <si>
-    <t>Maxxlog</t>
-  </si>
-  <si>
-    <t>Blessed</t>
-  </si>
-  <si>
-    <t>CMPL Transportes</t>
-  </si>
-  <si>
-    <t>Ar Cargo</t>
-  </si>
-  <si>
-    <t>Manaos</t>
-  </si>
-  <si>
-    <t>Avista</t>
-  </si>
-  <si>
-    <t>Kuehne+Nagel</t>
-  </si>
-  <si>
     <t>OPR</t>
   </si>
   <si>
-    <t>Dapex</t>
-  </si>
-  <si>
-    <t>GD Guimarães</t>
-  </si>
-  <si>
-    <t>Onze</t>
-  </si>
-  <si>
-    <t>Jualog</t>
-  </si>
-  <si>
-    <t>Ceva</t>
-  </si>
-  <si>
-    <t>BQ Log</t>
-  </si>
-  <si>
-    <t>Sequoia</t>
-  </si>
-  <si>
-    <t>Avant</t>
-  </si>
-  <si>
     <t>LINE HAUL</t>
   </si>
   <si>
-    <t>AD&amp;GE TRANSPORTE RODOVIARIO DE CARGAS LTDA ME</t>
-  </si>
-  <si>
-    <t>AXON TRANSPORTES S/A</t>
-  </si>
-  <si>
-    <t>CARGOLIFT LOGÍSTICA S/A</t>
-  </si>
-  <si>
-    <t>DV3 SOLUÇÕES LOGISTICAS LTDA</t>
-  </si>
-  <si>
-    <t>FAZENDA SÃO JUDAS LOGÍSTICA LTDA</t>
-  </si>
-  <si>
-    <t>GAFOR S.A.</t>
-  </si>
-  <si>
-    <t>JM TRANSPORTES E DISTRIBUICÃO LTDA</t>
-  </si>
-  <si>
-    <t>JOMED TRANSPORTES E LOGISTICA EIRELI</t>
-  </si>
-  <si>
-    <t>LEMAR LOGÍSTICA E TRANSPORTES LTDA</t>
-  </si>
-  <si>
-    <t>OPR LOGISTICA PONTUAL</t>
-  </si>
-  <si>
-    <t>RN EXPRESS COURIER DO BRASIL</t>
-  </si>
-  <si>
-    <t>RODOVIARIO NOSSA SENHORA DA PENHA LTDA</t>
-  </si>
-  <si>
-    <t>TRANS RV TRANSPORTES RODOVIÁRIO DE CARGAS LTDA</t>
-  </si>
-  <si>
-    <t>MONFREDNI TRANSPORTES LTDA</t>
-  </si>
-  <si>
-    <t>REITER TRANSPORTES E LOGÍSTICA LTDA</t>
-  </si>
-  <si>
-    <t>TRANSKING TRANSPORTES LTDA</t>
-  </si>
-  <si>
-    <t>TRANSPORTES CORDENONSI LTDA</t>
-  </si>
-  <si>
-    <t>GAS TRANSPORTES E SERVIÇOS LTDA</t>
-  </si>
-  <si>
-    <t>R&amp;R ISA'S TRANSPORTES EIRELI</t>
-  </si>
-  <si>
-    <t>CARGOBR TRANSPORTES EIRELLI</t>
-  </si>
-  <si>
-    <t>Tex Courier Express (Total Express)</t>
-  </si>
-  <si>
-    <t>JSL S.A</t>
-  </si>
-  <si>
     <t>Obras (Construtora)</t>
   </si>
   <si>
@@ -715,42 +283,18 @@
     <t>LPL CONSTRUCOES LTDA</t>
   </si>
   <si>
-    <t>LEMARC ENGENHARIA LTDA</t>
-  </si>
-  <si>
-    <t>SEC SERVICOS DE ENGENHARIA E CONSTRUÇÃO</t>
-  </si>
-  <si>
     <t>BINE ENGENHARIA LTDA</t>
   </si>
   <si>
     <t>CONSTRUTORA FOCCO</t>
   </si>
   <si>
-    <t>360 CONSTRUÇÕES</t>
-  </si>
-  <si>
     <t>ENGFLEX ENGENHARIA E CONSULTORIA LTDA</t>
   </si>
   <si>
-    <t>ATHIE WOHNRATH COMERCIO DE PRODUTOS</t>
-  </si>
-  <si>
     <t>CONSUL ENGENHARIA LTDA</t>
   </si>
   <si>
-    <t>PRODUCTION AGENCY</t>
-  </si>
-  <si>
-    <t>Paranoid Brasil Ltda.</t>
-  </si>
-  <si>
-    <t>MOVI &amp; ART PRODUÇÕES CINEMATOGRÁFICAS LTDA</t>
-  </si>
-  <si>
-    <t>Delicatessen Produção de Filmes LTDA</t>
-  </si>
-  <si>
     <t>REAL ESTATE SHIPPING</t>
   </si>
   <si>
@@ -790,9 +334,6 @@
     <t>RBR Log</t>
   </si>
   <si>
-    <t>BTS Propoerties</t>
-  </si>
-  <si>
     <t>SISTEMAS DE ARMAZENAGEM E MECANIZAÇAO</t>
   </si>
   <si>
@@ -805,9 +346,6 @@
     <t>BASTIAN SOUTH AMERICA AUTOMACAO E</t>
   </si>
   <si>
-    <t>NUCLEOTECH</t>
-  </si>
-  <si>
     <t>SCHEFFER</t>
   </si>
   <si>
@@ -826,114 +364,36 @@
     <t>MAO DE OBRA EXTERNA</t>
   </si>
   <si>
-    <t>4T GROUP</t>
-  </si>
-  <si>
-    <t>A Senhorinha Serviços Logísticos Ltda</t>
-  </si>
-  <si>
-    <t>ACTUAL SELECAO E SERVICOS LTDA.</t>
-  </si>
-  <si>
-    <t>BLITZ RECURSOS HUMANOS LTDA</t>
-  </si>
-  <si>
-    <t>CAMARGO &amp; MACIEL RECURSOS HUMANOS LTDA</t>
-  </si>
-  <si>
     <t>Carpediem Desenvolvimento Profissional Ltda</t>
   </si>
   <si>
-    <t>CH BRAZIL CONSULTORIA RECURSOS HUMANOS</t>
-  </si>
-  <si>
-    <t>Cipriano Logística e Transportes Ltda</t>
-  </si>
-  <si>
     <t>EBS2 TRADE E GESTAO LTDA</t>
   </si>
   <si>
-    <t>EMPLOYER TRABALHO TEMPORÁRIO S.A.</t>
-  </si>
-  <si>
-    <t>Eurofirms Gestão de Talentos Brasil Ltda</t>
-  </si>
-  <si>
-    <t>FENIX ORGANIZACAO EM RECURSOS HUMANOS LTDA(Fenix RH)</t>
-  </si>
-  <si>
-    <t>FENIX SERVICE SERVIÇOS E MÃO DE OBRA LTDA</t>
-  </si>
-  <si>
-    <t>FORMATEC TERCEIRIZAÇÃO LTDA</t>
-  </si>
-  <si>
-    <t>FORMAWORK SERVIÇOS TEMPORARIOS LTDA</t>
-  </si>
-  <si>
     <t>GESTAO &amp; EMPREGOS, RECURSOS HUMANOS LTDA(personare)</t>
   </si>
   <si>
     <t>Grupo Services</t>
   </si>
   <si>
-    <t>HUBPROLOG TECNOLOGIA E SERVICOS LOGISTICOS LTDA</t>
-  </si>
-  <si>
-    <t>JABUR SOLUÇÕES EM RECURSOS HUMANOS LTDA</t>
-  </si>
-  <si>
-    <t>JUAREZ PEDRO DE OLIVEIRA LTDA</t>
-  </si>
-  <si>
     <t>MALKA GESTAO DE PESSOAS LTDA</t>
   </si>
   <si>
     <t>MANPOWER STAFFING LTDA</t>
   </si>
   <si>
-    <t>MENDES TALENT TERCEIRIZACAO E RECURSOS HUMANOS LTDA</t>
-  </si>
-  <si>
-    <t>METARH RECRUTAMENTO E SELECAO DE PESSOAL LTDA.</t>
-  </si>
-  <si>
     <t>NOSSA SERVICO TEMPORARIO E GESTAO DE PESSOAS LTDA</t>
   </si>
   <si>
-    <t>NOVA RHEAL CONSULTORIA EMPRESARIAL LTDA (união rh)</t>
-  </si>
-  <si>
-    <t>Olog Operador Logístico Digital Ltda</t>
-  </si>
-  <si>
-    <t>PANNA RECURSOS HUMANOS E TERCEIRIZAÇÃO LTDA</t>
-  </si>
-  <si>
     <t>PERSONA PRO GESTAO INTELIGENTE LTDA</t>
   </si>
   <si>
-    <t>Polly Recursos Humanos e Transportes Ltda</t>
-  </si>
-  <si>
     <t>Polly Serviços de Apoio Logistico Eireli</t>
   </si>
   <si>
-    <t>Polly Serviços de Terceirização Ltda</t>
-  </si>
-  <si>
-    <t>PREMIERE SERVIÇOS EMPRESÁRIAIS LTDA</t>
-  </si>
-  <si>
     <t>PRIMER GESTAO DE RECURSOS HUMANOS LTDA</t>
   </si>
   <si>
-    <t>PROMPT SERVIÇOS ESPECIALIZADOS EM MÃO DE OBRA LTDA</t>
-  </si>
-  <si>
-    <t>RECURSUS CONSULTORIA E OUTSOURCING LTDA</t>
-  </si>
-  <si>
     <t>RH MAIOR</t>
   </si>
   <si>
@@ -949,24 +409,6 @@
     <t>SP Soluções Empresariais Ltda(sertec)</t>
   </si>
   <si>
-    <t>SRM - TERCEIRIZACAO DE SERVICOS E RECURSOS HUMANOS LTDA</t>
-  </si>
-  <si>
-    <t>SUPORTE RECURSOS HUMANOS LTDA</t>
-  </si>
-  <si>
-    <t>SUPREMA SOLUÇÕES LOGISTICAS RECURSOS HUMANOS LTDA</t>
-  </si>
-  <si>
-    <t>TBRH RECURSOS HUMANOS LTDA</t>
-  </si>
-  <si>
-    <t>TELOS CONSULTORIA EMPRESARIAL LTDA</t>
-  </si>
-  <si>
-    <t>TSI</t>
-  </si>
-  <si>
     <t>UMANA BRASIL ASSESSORIA E CONSULTORIA DE RECURSOS HUMANOS LTDA</t>
   </si>
   <si>
@@ -976,27 +418,15 @@
     <t>WE CAN BR TRABALHO TEMPORÁRIO LTDA</t>
   </si>
   <si>
-    <t>ZAFER RECURSOS HUMANOS E TRABALHO TEMPORÁRIO LTDA</t>
-  </si>
-  <si>
     <t>ADECCO RECURSOS HUMANOS S/A</t>
   </si>
   <si>
     <t>ALLIS LUANDRE SOLUCOES EM TRADE E PESSOAS S/A</t>
   </si>
   <si>
-    <t>CUSTOMIZA LOGISTICA E SERVICOS LTDA</t>
-  </si>
-  <si>
     <t>GI GROUP BRASIL RECURSOS HUMANOS LTDA</t>
   </si>
   <si>
-    <t>EXPERT CONSULTORIA E TERCEIRIZAÇÃO DE MÃO DE OBRA LTDA</t>
-  </si>
-  <si>
-    <t>Led Logística e Serviços Ltda</t>
-  </si>
-  <si>
     <t>RANDSTAD BRASIL RECURSOS HUMANOS LTDA</t>
   </si>
   <si>
@@ -1097,19 +527,439 @@
   </si>
   <si>
     <t>Teste</t>
+  </si>
+  <si>
+    <t>Teste1</t>
+  </si>
+  <si>
+    <t>Teste2</t>
+  </si>
+  <si>
+    <t>Senha</t>
+  </si>
+  <si>
+    <t>Teste3</t>
+  </si>
+  <si>
+    <t>ATENTO</t>
+  </si>
+  <si>
+    <t>Correios</t>
+  </si>
+  <si>
+    <t>J&amp;T</t>
+  </si>
+  <si>
+    <t>Jad Logistica Ltda</t>
+  </si>
+  <si>
+    <t>Carvalima</t>
+  </si>
+  <si>
+    <t>Loggi</t>
+  </si>
+  <si>
+    <t>FedexBr</t>
+  </si>
+  <si>
+    <t>Equip IS Shipp</t>
+  </si>
+  <si>
+    <t>Simpress</t>
+  </si>
+  <si>
+    <t>SDC ENGENHARIA DE SISTEMAS LTDA</t>
+  </si>
+  <si>
+    <t>INGRAM MICRO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>CONVERSYS IT SOLUTIONS COMERCIO E S</t>
+  </si>
+  <si>
+    <t>SEAL TELECOM COM SERV DE TELEC LTDA</t>
+  </si>
+  <si>
+    <t>FACILITIES &amp; MANUTENÇAO</t>
+  </si>
+  <si>
+    <t>Transportadora Grupo Imediato</t>
+  </si>
+  <si>
+    <t>PRA LOG</t>
+  </si>
+  <si>
+    <t>CEVA</t>
+  </si>
+  <si>
+    <t>PANTERA LOG TRAN</t>
+  </si>
+  <si>
+    <t>SEQUOIA LM</t>
+  </si>
+  <si>
+    <t>KN Logistica</t>
+  </si>
+  <si>
+    <t>ON TIME SERVICOS</t>
+  </si>
+  <si>
+    <t>BLD LOGÍSTICA</t>
+  </si>
+  <si>
+    <t>BGN NIKIMBA</t>
+  </si>
+  <si>
+    <t>FLYPACK</t>
+  </si>
+  <si>
+    <t>Kari Fretados</t>
+  </si>
+  <si>
+    <t>BRJTransportes</t>
+  </si>
+  <si>
+    <t>PARCEIRO SPOT SOLUCOES</t>
+  </si>
+  <si>
+    <t>COOPMETRO</t>
+  </si>
+  <si>
+    <t>BASEPEX ENCOM</t>
+  </si>
+  <si>
+    <t>A L C TRANSPORTES</t>
+  </si>
+  <si>
+    <t>TRANSMANA</t>
+  </si>
+  <si>
+    <t>ALTOVALE</t>
+  </si>
+  <si>
+    <t>TORRESTRANSP</t>
+  </si>
+  <si>
+    <t>MARONItransp</t>
+  </si>
+  <si>
+    <t>fazendasaojudas</t>
+  </si>
+  <si>
+    <t>MONFREDINI TRANSPORTES</t>
+  </si>
+  <si>
+    <t>JOMED</t>
+  </si>
+  <si>
+    <t>CARGOLIFT</t>
+  </si>
+  <si>
+    <t>Cordenonsi</t>
+  </si>
+  <si>
+    <t>Lemar</t>
+  </si>
+  <si>
+    <t>GAS TRANSPORTES</t>
+  </si>
+  <si>
+    <t>ADyGE</t>
+  </si>
+  <si>
+    <t>RODOPENHA</t>
+  </si>
+  <si>
+    <t>Axon Transportes</t>
+  </si>
+  <si>
+    <t>TRANSKING</t>
+  </si>
+  <si>
+    <t>DV3</t>
+  </si>
+  <si>
+    <t>TransRV</t>
+  </si>
+  <si>
+    <t>AMERICA RECURSOS HUMANOS LTDA</t>
+  </si>
+  <si>
+    <t>PEOPLE SERVICOS TEMPORARIOS LTDA</t>
+  </si>
+  <si>
+    <t>QPC</t>
+  </si>
+  <si>
+    <t>Produtos Fintech</t>
+  </si>
+  <si>
+    <t>THALES DIS BRASIL CARTÕES E SOLUÇÕE</t>
+  </si>
+  <si>
+    <t>VALID SOLUCOES SA</t>
+  </si>
+  <si>
+    <t>NPT DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>TEC TOY</t>
+  </si>
+  <si>
+    <t>GERTEC</t>
+  </si>
+  <si>
+    <t>Brookfield Properties</t>
+  </si>
+  <si>
+    <t>BTS Properties</t>
+  </si>
+  <si>
+    <t>FROTA FIXA</t>
+  </si>
+  <si>
+    <t>LOCALIZA</t>
+  </si>
+  <si>
+    <t>ARVAL</t>
+  </si>
+  <si>
+    <t>TKS ( TRANSMARONI)</t>
+  </si>
+  <si>
+    <t>EVM</t>
+  </si>
+  <si>
+    <t>VAMOS</t>
+  </si>
+  <si>
+    <t>MOVIDA</t>
+  </si>
+  <si>
+    <t>EQUIPAMENTOS OPERATIVOS</t>
+  </si>
+  <si>
+    <t>JUNGHEINRICH LIFT TRUCK COMERCIO DE</t>
+  </si>
+  <si>
+    <t>SOMOV RENTAL LTDA</t>
+  </si>
+  <si>
+    <t>DISKTRANS COMERCIAL LTDA</t>
+  </si>
+  <si>
+    <t>VAMOS LOCACAO DE CAMINHOES</t>
+  </si>
+  <si>
+    <t>KION SOUTH AMERICA FABRICACAO DE EQ</t>
+  </si>
+  <si>
+    <t>Tursan</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>REITER</t>
+  </si>
+  <si>
+    <t>FORM E ART IND COM ART METALICOS LT</t>
+  </si>
+  <si>
+    <t>METALURGICA JAM LTDA</t>
+  </si>
+  <si>
+    <t>DTECH SOLUTIONS INDUSTRIA E COMERC</t>
+  </si>
+  <si>
+    <t>ELLAN SA</t>
+  </si>
+  <si>
+    <t>DTEKT COMERCIO DE FERRAGENS E</t>
+  </si>
+  <si>
+    <t>MKL DO BRASIL INDUSTRIA E COMERCIO</t>
+  </si>
+  <si>
+    <t>AMERICAR EQUIPAMENTOS E PECAS PARA</t>
+  </si>
+  <si>
+    <t>silva.bruno@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>luciano.oliveira@mercadopago.com.br</t>
+  </si>
+  <si>
+    <t>daniela.hoyos@mercadopago.com.br</t>
+  </si>
+  <si>
+    <t>bruno.deoliveira@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>carla.teixeira@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>danieli.cordeiro@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>camila.rodrigues@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>OBRAS</t>
+  </si>
+  <si>
+    <t>vinicius.vano@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>tiago.pires@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>karina.gouveia@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>marilia.guimaraes@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>EQUIP IS SHIPPING</t>
+  </si>
+  <si>
+    <t>ana.maksoud@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>bruno.freitas@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>matheus.pucci@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>monica.rosenburg@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>rogerio.dbandeira@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>thiago.tferreira@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>marcio.carvalho@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>leticia.bferreira@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>hiolanda.tavares@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>PRODUTOS FINTECH</t>
+  </si>
+  <si>
+    <t>patricia.scaglioni@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>mariana.greene@mercadolibre.cl</t>
+  </si>
+  <si>
+    <t>natalice.dasilva@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>luiza.franco@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>caio.malatesta@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>fernando.falmeida@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>juliana.castellano@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>marcela.moretti@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>rafael.giagio@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>elisandro.bihum@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>diego.cruz@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>cristiane.scamilo@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>felipe.abueno@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>priscila.barcelli@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>rodrigo.acruz@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>javier.konig@mercadolibre.com</t>
+  </si>
+  <si>
+    <t>tiago.tsilva@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>yineska.gonzalez@mercadolibre.com</t>
+  </si>
+  <si>
+    <t>abigail.fandino@mercadolibre.com</t>
+  </si>
+  <si>
+    <t>nicole.ncontheux@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>pablo.contessi@mercadolibre.com</t>
+  </si>
+  <si>
+    <t>anderson.deoliveira@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>mayara.mmelo@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>fabio.marcomini@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>gustavo.culber@mercadolivre.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1129,13 +979,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1468,95 +1323,780 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2939FEBB-D56D-4D0D-8366-6ACEEBE32804}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection sqref="A1:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>347</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>348</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>350</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>351</v>
-      </c>
-      <c r="B6" t="s">
-        <v>349</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B47" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B48" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B49" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B54" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B55" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B57" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B58" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B59" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B62" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B63" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" t="s">
+        <v>269</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{2939FEBB-D56D-4D0D-8366-6ACEEBE32804}"/>
+  <autoFilter ref="A1:D63" xr:uid="{2939FEBB-D56D-4D0D-8366-6ACEEBE32804}"/>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1" xr:uid="{8D189261-DF30-425C-A5BB-9C0F96008B51}"/>
+    <hyperlink ref="A10" r:id="rId2" xr:uid="{CB141E42-011C-404E-AFAD-EDC98C6F663B}"/>
+    <hyperlink ref="A11" r:id="rId3" xr:uid="{6FD7FBEC-3B78-44C0-A6AC-64FA5A12DE92}"/>
+    <hyperlink ref="A12" r:id="rId4" xr:uid="{C4DA20D7-CA54-4D0E-BCE8-73297EC84346}"/>
+    <hyperlink ref="A13" r:id="rId5" xr:uid="{2441D862-3D7F-4D22-B3E8-06DDA34BCA2D}"/>
+    <hyperlink ref="A14" r:id="rId6" xr:uid="{2AFD8DD0-9DE5-4018-A64D-8608870CEFC3}"/>
+    <hyperlink ref="A15" r:id="rId7" xr:uid="{989ACF43-15FD-43AA-A17E-97E81D8BAB86}"/>
+    <hyperlink ref="A16" r:id="rId8" xr:uid="{AC1BBC28-5DB0-4741-8D30-10EFCE72664B}"/>
+    <hyperlink ref="A18" r:id="rId9" xr:uid="{8500C5F1-8B8A-4712-B962-7562103E3790}"/>
+    <hyperlink ref="A19" r:id="rId10" xr:uid="{43132731-C044-4050-9912-F582D1A3BF0E}"/>
+    <hyperlink ref="A20:A21" r:id="rId11" display="karina.gouveia@mercadolivre.com" xr:uid="{40D590C2-4A2C-4762-933E-3FC5AA2D4ADE}"/>
+    <hyperlink ref="A22" r:id="rId12" xr:uid="{C58BB407-EAC0-459D-8535-DFE9F1B8BC42}"/>
+    <hyperlink ref="A24" r:id="rId13" xr:uid="{5B7C3B39-463D-4BB1-8BD8-486187DC1995}"/>
+    <hyperlink ref="A25" r:id="rId14" xr:uid="{42827ECB-FBD2-4D84-B88C-784CD5314495}"/>
+    <hyperlink ref="A26" r:id="rId15" xr:uid="{C9CBC88F-AEBF-405A-97CB-9A95B198DC44}"/>
+    <hyperlink ref="A27" r:id="rId16" xr:uid="{23FECB9E-8CA9-4F8A-BC72-86930C5B076E}"/>
+    <hyperlink ref="A28" r:id="rId17" xr:uid="{A16ACB94-945B-4FAF-B0CA-AB3FBC502D1A}"/>
+    <hyperlink ref="A30" r:id="rId18" xr:uid="{5CEE9139-C978-4E79-ADD0-68E567340A9D}"/>
+    <hyperlink ref="A31" r:id="rId19" xr:uid="{B1FF7A30-A213-441A-A323-F6A6F6256CA7}"/>
+    <hyperlink ref="A32" r:id="rId20" xr:uid="{2BDF4DB4-837A-4D64-B4A3-9D2E72D3FE3E}"/>
+    <hyperlink ref="A33" r:id="rId21" xr:uid="{0F1F9CCC-00B9-4160-82AE-52A97C865986}"/>
+    <hyperlink ref="A34" r:id="rId22" xr:uid="{38EFDFF9-942A-47F9-A69D-F901F1576724}"/>
+    <hyperlink ref="A35" r:id="rId23" xr:uid="{379DB39A-CE26-4515-9DDD-BE25995314CC}"/>
+    <hyperlink ref="A36" r:id="rId24" xr:uid="{B5AC8671-4876-4863-86B3-93F14638A020}"/>
+    <hyperlink ref="A37" r:id="rId25" xr:uid="{BECCE28C-F3CF-4E86-90F2-EA2CC19403B0}"/>
+    <hyperlink ref="A40" r:id="rId26" xr:uid="{28046451-76E8-4AF8-803C-5B263E7FA461}"/>
+    <hyperlink ref="A41" r:id="rId27" xr:uid="{7BC7CF63-0372-4639-975F-FE0CE1B524F6}"/>
+    <hyperlink ref="A42" r:id="rId28" xr:uid="{948FEFDC-3A31-4A47-AE01-2BFE92685E55}"/>
+    <hyperlink ref="A44" r:id="rId29" xr:uid="{F8300844-A5C0-4374-88FC-6A166FF8545B}"/>
+    <hyperlink ref="A45" r:id="rId30" xr:uid="{69C67621-4607-4728-B3DE-1DCEAB951C25}"/>
+    <hyperlink ref="A46" r:id="rId31" xr:uid="{45004598-476A-48DE-870D-0F9922191463}"/>
+    <hyperlink ref="A47" r:id="rId32" xr:uid="{3BA7327E-A081-4ECC-9D0C-B33B1165B5ED}"/>
+    <hyperlink ref="A48" r:id="rId33" xr:uid="{3C5FF18D-5550-42F5-8288-9125C2F14E95}"/>
+    <hyperlink ref="A49" r:id="rId34" xr:uid="{882D4E2A-999D-4239-962B-2F9F730C71B6}"/>
+    <hyperlink ref="A50" r:id="rId35" xr:uid="{D21348B3-5407-46EF-AAAD-C718D45658C4}"/>
+    <hyperlink ref="A52" r:id="rId36" xr:uid="{250E67A8-5AD7-47D8-B045-E2B395B5CD1E}"/>
+    <hyperlink ref="A53" r:id="rId37" xr:uid="{320D5FA2-BFB7-4526-B098-DB3F9FEB0CBA}"/>
+    <hyperlink ref="A57" r:id="rId38" xr:uid="{6330E2D8-B2DE-4DBE-920E-60CAD6165CD4}"/>
+    <hyperlink ref="A58" r:id="rId39" xr:uid="{8F8E4823-9F3F-473E-84A3-9070CE6CF901}"/>
+    <hyperlink ref="A59" r:id="rId40" xr:uid="{FC939245-BC0F-4511-BC92-35B9AA45E2C5}"/>
+    <hyperlink ref="A60" r:id="rId41" xr:uid="{353BDE3A-CE05-42E3-8466-63A536BB339C}"/>
+    <hyperlink ref="A61" r:id="rId42" xr:uid="{99083556-E41A-4ECD-8EDB-9D3161B3EE9E}"/>
+    <hyperlink ref="A62" r:id="rId43" xr:uid="{D4C81331-12D3-4405-BF35-36FE75706BBD}"/>
+    <hyperlink ref="A63" r:id="rId44" xr:uid="{8EB0F586-7CF5-4AF6-BEF9-D68B5ECFBFD1}"/>
+    <hyperlink ref="A17" r:id="rId45" xr:uid="{D6254114-1161-43E2-93FE-7ECA5D7A4505}"/>
+    <hyperlink ref="A56" r:id="rId46" xr:uid="{2038710C-A636-43FF-8C2E-1A54462FF381}"/>
+    <hyperlink ref="A39" r:id="rId47" xr:uid="{A2E4D26B-FF91-4F0D-91E6-41E37CCA9759}"/>
+    <hyperlink ref="A38" r:id="rId48" xr:uid="{8341BB43-1C12-4274-9CE1-B6445B6018DD}"/>
+    <hyperlink ref="A23" r:id="rId49" xr:uid="{9772E0D8-1C5B-4FEE-88E1-5AE2566C0C56}"/>
+    <hyperlink ref="A43" r:id="rId50" xr:uid="{8E639BE4-A752-4C0C-BA39-E56EF6C8379C}"/>
+    <hyperlink ref="A51" r:id="rId51" xr:uid="{7B728A52-5DFD-439F-8E9E-6662641D9F54}"/>
+    <hyperlink ref="A54" r:id="rId52" xr:uid="{358A797A-F234-40FC-8ABB-E8DB4AD6543E}"/>
+    <hyperlink ref="A55" r:id="rId53" xr:uid="{E296E685-1CD8-4F1A-839F-325749B13FD4}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CC248E-3C21-4DCC-815C-0A279EC017CB}">
-  <dimension ref="A1:B334"/>
+  <dimension ref="A1:B225"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection sqref="A1:B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1634,7 +2174,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1642,1215 +2182,1215 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B84" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B89" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B90" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B94" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B95" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B97" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B98" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B99" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B100" t="s">
-        <v>108</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B102" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B104" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B105" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B106" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B107" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B108" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B109" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B110" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B111" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B112" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B113" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B115" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B116" t="s">
-        <v>124</v>
+        <v>237</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B117" t="s">
-        <v>125</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="B118" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="B119" t="s">
-        <v>127</v>
+        <v>226</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="B120" t="s">
-        <v>128</v>
+        <v>227</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="B121" t="s">
-        <v>129</v>
+        <v>228</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="B122" t="s">
-        <v>130</v>
+        <v>229</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="B123" t="s">
-        <v>131</v>
+        <v>230</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B125" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B127" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B128" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B129" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B130" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B131" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B132" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B133" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B134" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B135" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B136" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B137" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B138" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B139" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B140" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B141" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B142" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B143" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B144" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B145" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B146" t="s">
-        <v>154</v>
+        <v>64</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B147" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B148" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B149" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B150" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B151" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B152" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B153" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B154" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B155" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B156" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B157" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B158" t="s">
-        <v>166</v>
+        <v>68</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B159" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B160" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B161" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -2858,7 +3398,7 @@
         <v>106</v>
       </c>
       <c r="B162" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -2866,7 +3406,7 @@
         <v>106</v>
       </c>
       <c r="B163" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -2874,7 +3414,7 @@
         <v>106</v>
       </c>
       <c r="B164" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -2882,7 +3422,7 @@
         <v>106</v>
       </c>
       <c r="B165" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -2890,7 +3430,7 @@
         <v>106</v>
       </c>
       <c r="B166" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -2898,7 +3438,7 @@
         <v>106</v>
       </c>
       <c r="B167" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -2906,7 +3446,7 @@
         <v>106</v>
       </c>
       <c r="B168" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -2914,7 +3454,7 @@
         <v>106</v>
       </c>
       <c r="B169" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -2922,7 +3462,7 @@
         <v>106</v>
       </c>
       <c r="B170" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -2930,7 +3470,7 @@
         <v>106</v>
       </c>
       <c r="B171" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -2938,7 +3478,7 @@
         <v>106</v>
       </c>
       <c r="B172" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -2946,7 +3486,7 @@
         <v>106</v>
       </c>
       <c r="B173" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -2954,7 +3494,7 @@
         <v>106</v>
       </c>
       <c r="B174" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -2962,7 +3502,7 @@
         <v>106</v>
       </c>
       <c r="B175" t="s">
-        <v>183</v>
+        <v>116</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -2970,7 +3510,7 @@
         <v>106</v>
       </c>
       <c r="B176" t="s">
-        <v>184</v>
+        <v>117</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -2978,7 +3518,7 @@
         <v>106</v>
       </c>
       <c r="B177" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -2986,7 +3526,7 @@
         <v>106</v>
       </c>
       <c r="B178" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -2994,7 +3534,7 @@
         <v>106</v>
       </c>
       <c r="B179" t="s">
-        <v>187</v>
+        <v>121</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -3002,7 +3542,7 @@
         <v>106</v>
       </c>
       <c r="B180" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -3010,7 +3550,7 @@
         <v>106</v>
       </c>
       <c r="B181" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -3018,7 +3558,7 @@
         <v>106</v>
       </c>
       <c r="B182" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -3026,268 +3566,268 @@
         <v>106</v>
       </c>
       <c r="B183" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="B184" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="B185" t="s">
-        <v>194</v>
+        <v>128</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="B186" t="s">
-        <v>195</v>
+        <v>72</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="B189" t="s">
-        <v>196</v>
+        <v>75</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="B190" t="s">
-        <v>197</v>
+        <v>76</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="B191" t="s">
-        <v>198</v>
+        <v>77</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="B192" t="s">
-        <v>199</v>
+        <v>78</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="B193" t="s">
-        <v>200</v>
+        <v>79</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="B194" t="s">
-        <v>201</v>
+        <v>80</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="B195" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="B196" t="s">
-        <v>202</v>
+        <v>82</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="B197" t="s">
-        <v>203</v>
+        <v>83</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="B198" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="B199" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="B200" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="B201" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="B202" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="B203" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="B204" t="s">
-        <v>210</v>
+        <v>85</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="B205" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="B206" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="B207" t="s">
-        <v>212</v>
+        <v>88</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="B208" t="s">
-        <v>213</v>
+        <v>89</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="B209" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="B210" t="s">
-        <v>216</v>
+        <v>91</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="B211" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="B212" t="s">
-        <v>218</v>
+        <v>93</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="B213" t="s">
-        <v>219</v>
+        <v>94</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="B214" t="s">
-        <v>220</v>
+        <v>95</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="B215" t="s">
-        <v>221</v>
+        <v>96</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="B216" t="s">
         <v>222</v>
@@ -3295,7 +3835,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="B217" t="s">
         <v>223</v>
@@ -3303,942 +3843,71 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="B218" t="s">
-        <v>224</v>
+        <v>98</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="B219" t="s">
-        <v>225</v>
+        <v>100</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="B220" t="s">
-        <v>226</v>
+        <v>99</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="B221" t="s">
-        <v>227</v>
+        <v>101</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="B222" t="s">
-        <v>228</v>
+        <v>102</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="B223" t="s">
-        <v>229</v>
+        <v>103</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="B224" t="s">
-        <v>230</v>
+        <v>104</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="B225" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>232</v>
-      </c>
-      <c r="B226" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
-        <v>232</v>
-      </c>
-      <c r="B227" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>232</v>
-      </c>
-      <c r="B228" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
-        <v>236</v>
-      </c>
-      <c r="B229" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
-        <v>236</v>
-      </c>
-      <c r="B230" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
-        <v>236</v>
-      </c>
-      <c r="B231" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>236</v>
-      </c>
-      <c r="B232" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
-        <v>236</v>
-      </c>
-      <c r="B233" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
-        <v>236</v>
-      </c>
-      <c r="B234" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>236</v>
-      </c>
-      <c r="B235" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
-        <v>236</v>
-      </c>
-      <c r="B236" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
-        <v>236</v>
-      </c>
-      <c r="B237" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
-        <v>236</v>
-      </c>
-      <c r="B238" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>236</v>
-      </c>
-      <c r="B239" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
-        <v>236</v>
-      </c>
-      <c r="B240" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>236</v>
-      </c>
-      <c r="B241" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>250</v>
-      </c>
-      <c r="B242" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>250</v>
-      </c>
-      <c r="B243" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>250</v>
-      </c>
-      <c r="B244" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>250</v>
-      </c>
-      <c r="B245" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>250</v>
-      </c>
-      <c r="B246" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>250</v>
-      </c>
-      <c r="B247" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>250</v>
-      </c>
-      <c r="B248" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>250</v>
-      </c>
-      <c r="B249" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>250</v>
-      </c>
-      <c r="B250" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>260</v>
-      </c>
-      <c r="B251" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
-        <v>260</v>
-      </c>
-      <c r="B252" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>260</v>
-      </c>
-      <c r="B253" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>260</v>
-      </c>
-      <c r="B254" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>260</v>
-      </c>
-      <c r="B255" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>260</v>
-      </c>
-      <c r="B256" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>260</v>
-      </c>
-      <c r="B257" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>260</v>
-      </c>
-      <c r="B258" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>260</v>
-      </c>
-      <c r="B259" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>260</v>
-      </c>
-      <c r="B260" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>260</v>
-      </c>
-      <c r="B261" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>260</v>
-      </c>
-      <c r="B262" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>260</v>
-      </c>
-      <c r="B263" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>260</v>
-      </c>
-      <c r="B264" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>260</v>
-      </c>
-      <c r="B265" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>260</v>
-      </c>
-      <c r="B266" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>260</v>
-      </c>
-      <c r="B267" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>260</v>
-      </c>
-      <c r="B268" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
-        <v>260</v>
-      </c>
-      <c r="B269" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
-        <v>260</v>
-      </c>
-      <c r="B270" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
-        <v>260</v>
-      </c>
-      <c r="B271" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
-        <v>260</v>
-      </c>
-      <c r="B272" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
-        <v>260</v>
-      </c>
-      <c r="B273" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>260</v>
-      </c>
-      <c r="B274" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>260</v>
-      </c>
-      <c r="B275" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>260</v>
-      </c>
-      <c r="B276" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
-        <v>260</v>
-      </c>
-      <c r="B277" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>260</v>
-      </c>
-      <c r="B278" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>260</v>
-      </c>
-      <c r="B279" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
-        <v>260</v>
-      </c>
-      <c r="B280" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
-        <v>260</v>
-      </c>
-      <c r="B281" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
-        <v>260</v>
-      </c>
-      <c r="B282" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
-        <v>260</v>
-      </c>
-      <c r="B283" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
-        <v>260</v>
-      </c>
-      <c r="B284" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
-        <v>260</v>
-      </c>
-      <c r="B285" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
-        <v>260</v>
-      </c>
-      <c r="B286" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
-        <v>260</v>
-      </c>
-      <c r="B287" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
-        <v>260</v>
-      </c>
-      <c r="B288" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
-        <v>260</v>
-      </c>
-      <c r="B289" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
-        <v>260</v>
-      </c>
-      <c r="B290" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
-        <v>260</v>
-      </c>
-      <c r="B291" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
-        <v>260</v>
-      </c>
-      <c r="B292" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
-        <v>260</v>
-      </c>
-      <c r="B293" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
-        <v>260</v>
-      </c>
-      <c r="B294" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
-        <v>260</v>
-      </c>
-      <c r="B295" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
-        <v>260</v>
-      </c>
-      <c r="B296" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
-        <v>260</v>
-      </c>
-      <c r="B297" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
-        <v>260</v>
-      </c>
-      <c r="B298" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
-        <v>260</v>
-      </c>
-      <c r="B299" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
-        <v>260</v>
-      </c>
-      <c r="B300" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
-        <v>260</v>
-      </c>
-      <c r="B301" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
-        <v>260</v>
-      </c>
-      <c r="B302" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
-        <v>260</v>
-      </c>
-      <c r="B303" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
-        <v>260</v>
-      </c>
-      <c r="B304" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
-        <v>260</v>
-      </c>
-      <c r="B305" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
-        <v>260</v>
-      </c>
-      <c r="B306" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
-        <v>260</v>
-      </c>
-      <c r="B307" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
-        <v>260</v>
-      </c>
-      <c r="B308" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
-        <v>319</v>
-      </c>
-      <c r="B309" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
-        <v>319</v>
-      </c>
-      <c r="B310" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
-        <v>319</v>
-      </c>
-      <c r="B311" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
-        <v>319</v>
-      </c>
-      <c r="B312" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
-        <v>319</v>
-      </c>
-      <c r="B313" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
-        <v>319</v>
-      </c>
-      <c r="B314" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
-        <v>319</v>
-      </c>
-      <c r="B315" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
-        <v>319</v>
-      </c>
-      <c r="B316" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
-        <v>319</v>
-      </c>
-      <c r="B317" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
-        <v>319</v>
-      </c>
-      <c r="B318" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
-        <v>319</v>
-      </c>
-      <c r="B319" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
-        <v>319</v>
-      </c>
-      <c r="B320" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
-        <v>319</v>
-      </c>
-      <c r="B321" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
-        <v>319</v>
-      </c>
-      <c r="B322" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
-        <v>319</v>
-      </c>
-      <c r="B323" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
-        <v>319</v>
-      </c>
-      <c r="B324" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
-        <v>319</v>
-      </c>
-      <c r="B325" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
-        <v>319</v>
-      </c>
-      <c r="B326" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
-        <v>319</v>
-      </c>
-      <c r="B327" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
-        <v>319</v>
-      </c>
-      <c r="B328" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
-        <v>319</v>
-      </c>
-      <c r="B329" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
-        <v>319</v>
-      </c>
-      <c r="B330" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
-        <v>319</v>
-      </c>
-      <c r="B331" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
-        <v>319</v>
-      </c>
-      <c r="B332" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
-        <v>319</v>
-      </c>
-      <c r="B333" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
-        <v>319</v>
-      </c>
-      <c r="B334" t="s">
-        <v>345</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B334" xr:uid="{94CC248E-3C21-4DCC-815C-0A279EC017CB}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>